--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EduScience\Articles\Vestnic_transporta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EduScience\Articles\Vestnic_transporta\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42972F83-6DD7-4EEF-883D-8B01C206C48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A81D6A7-98E7-4172-A5C8-9C903BFE526F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{81A5D3C6-4CE8-4B8B-A8E7-1EDBB14085B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{81A5D3C6-4CE8-4B8B-A8E7-1EDBB14085B3}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>Ульяновская область</t>
   </si>
   <si>
-    <t>X3 - Плотность железнодорожных путей на конец года, км. путей на 10000 км2 территорий</t>
-  </si>
-  <si>
     <t>X1 - Отправлено грузов железнодорожным транспортом общего пользования, млн. т.</t>
   </si>
   <si>
@@ -99,12 +96,6 @@
     <t>Х5 - Грузооборот автомобильного транспорта, млн. т-км.</t>
   </si>
   <si>
-    <t>Х6 - Перевозки пассажиров автомобильным трнаспортом, млн.  т.</t>
-  </si>
-  <si>
-    <t>Х7 - Пассажирооборот автомобильного транспорта, млн. пасс-км.</t>
-  </si>
-  <si>
     <t>Х8 - Плотность автомобильных дорог общего пользования с твердым покрытием, на конец года 1 км пути на 1000 км2 территории</t>
   </si>
   <si>
@@ -154,6 +145,15 @@
   </si>
   <si>
     <t>Х12 - Индекс физического объема ВРП в постоянных ценах, в процентах к предыдущему году</t>
+  </si>
+  <si>
+    <t>Х6 - Перевозки пассажиров автомобильным транспортом, млн.  чел.</t>
+  </si>
+  <si>
+    <t>Х7 - Пассажирооборот автомобильного транспорта автобусов общего пользования, млн. пасс-км.</t>
+  </si>
+  <si>
+    <t>X3 - Плотность железнодорожных путей на конец года, км. путей на 10000 км2 территории</t>
   </si>
 </sst>
 </file>
@@ -161,7 +161,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -196,7 +196,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -514,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4E7D19-35EA-4656-A47A-2997B363B928}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -534,40 +534,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1154,70 +1154,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F2FFB7-9B69-4078-90FB-FC542A0C1E02}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
